--- a/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjdd1\OneDrive\Documents\PLANTILLAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7992453-83F7-42E2-9593-75E6621B42F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F97EF-8FB4-42C9-8B22-41E20E160B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39408,8 +39408,8 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F97EF-8FB4-42C9-8B22-41E20E160B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E23E7-6115-44D5-8F4D-DF77BC99A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39408,8 +39408,8 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39576,7 +39576,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P5" s="16">
         <v>0.64959490740740744</v>
@@ -39627,7 +39627,7 @@
         <v>15</v>
       </c>
       <c r="O6" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P6" s="16">
         <v>0.64959490740740744</v>
@@ -39678,7 +39678,7 @@
         <v>15</v>
       </c>
       <c r="O7" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P7" s="16">
         <v>0.64959490740740744</v>
@@ -39729,7 +39729,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P8" s="16">
         <v>0.64959490740740744</v>
@@ -39780,7 +39780,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P9" s="16">
         <v>0.64959490740740744</v>
@@ -39831,7 +39831,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P10" s="16">
         <v>0.64959490740740744</v>
@@ -39882,7 +39882,7 @@
         <v>15</v>
       </c>
       <c r="O11" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P11" s="16">
         <v>0.64959490740740744</v>
@@ -39933,7 +39933,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P12" s="16">
         <v>0.64959490740740744</v>
@@ -39984,7 +39984,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P13" s="16">
         <v>0.64959490740740744</v>
@@ -40035,7 +40035,7 @@
         <v>15</v>
       </c>
       <c r="O14" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P14" s="16">
         <v>0.64959490740740744</v>
@@ -40086,7 +40086,7 @@
         <v>15</v>
       </c>
       <c r="O15" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P15" s="16">
         <v>0.64959490740740744</v>
@@ -40137,7 +40137,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P16" s="16">
         <v>0.64959490740740744</v>
@@ -40188,7 +40188,7 @@
         <v>15</v>
       </c>
       <c r="O17" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P17" s="16">
         <v>0.64959490740740744</v>
@@ -40239,7 +40239,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="15">
-        <v>45685</v>
+        <v>45715</v>
       </c>
       <c r="P18" s="16">
         <v>0.64959490740740744</v>

--- a/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E23E7-6115-44D5-8F4D-DF77BC99A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EDC57-07A3-4947-9438-00BA07AA5265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39409,7 +39409,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39780,7 +39780,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="15">
-        <v>45715</v>
+        <v>45724</v>
       </c>
       <c r="P9" s="16">
         <v>0.64959490740740744</v>

--- a/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2EDC57-07A3-4947-9438-00BA07AA5265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748491B3-42B8-4497-8097-B48E47370968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39780,7 +39780,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="15">
-        <v>45724</v>
+        <v>45715</v>
       </c>
       <c r="P9" s="16">
         <v>0.64959490740740744</v>

--- a/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
+++ b/storage/app/public/users/jose.jdgo97/COACTIVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam3\storage\app\public\users\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\multimedia_cam3\storage\app\public\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9B393-13BA-480D-8355-D23024B92B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB1A82-DBA3-4215-B290-398E2BBF6F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39409,7 +39409,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39454,6 +39454,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="17">
+        <f>COUNTIF(A5:A18, "&lt;&gt;")</f>
         <v>14</v>
       </c>
       <c r="C2" s="17"/>
@@ -39470,6 +39471,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="17">
+        <f>COUNTIF(H5:H18, "&lt;&gt;")</f>
         <v>14</v>
       </c>
       <c r="C3" s="17"/>
